--- a/biology/Botanique/Rourea/Rourea.xlsx
+++ b/biology/Botanique/Rourea/Rourea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rourea est un genre de plantes de la famille des Connaraceae, et dont l'espèce type est Rourea frutescens Aubl..
-Le nom Rourea fait vraisemblablement référence à la commune de Roura en Guyane, région dans laquelle le spécimen type a été collecté[3].
+Le nom Rourea fait vraisemblablement référence à la commune de Roura en Guyane, région dans laquelle le spécimen type a été collecté.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose le protologue suivant[4] : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose le protologue suivant : 
 « ROUREA. (Tabula 187.)
 CAL. Perianthium monophyllum, perſiſtens, quinquepartitum; laciniis ſubrotundis, concavis, extus tomentoſis.
 COR. Petala quinque, oblonga, ſubrotunda, alba, receptaculo germinis inſerta.
@@ -550,9 +564,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (02 mars 2022)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (02 mars 2022) :
 Bernardinia suerrensis G.Schellenb.
 Byrsocarpus alboflavescens Greenway ex Burtt Davy
 Byrsocarpus caillei A.Chev.
@@ -667,7 +683,7 @@
 Santaloides filgens (Planch.) Kuntze
 Santaloides pauanum G.Schellenb.
 Santaloides veillardii G.Schellenb.
-Selon World Flora Online (WFO)       (02 mars 2022)[5] :
+Selon World Flora Online (WFO)       (02 mars 2022) :
 Rourea accrescens Forero
 Rourea adenophora S.F. Blake
 Rourea amazonica (Baker) Radlk.
@@ -733,12 +749,12 @@
 Rourea tenuis G.Schellenb.
 Rourea thomsonii (Baker) Jongkind
 Rourea vulcanicola Forero
-Selon GBIF       (02 mars 2022)[2] :
+Selon GBIF       (02 mars 2022) :
 Cnestis erecta Blanco, 1837
 Rourea accrescens Forero, 1976
 Rourea acropetala Pierre, 1898
 Rourea acuminata Hook. f., 1876
-Rourea acutipetala Miq., 1860 [1861]
+Rourea acutipetala Miq., 1860 
 Rourea adenophora S.F. Blake, 1923
 Rourea adiantoides Gilg, 1896
 Rourea afzelii R. Br. ex Planch., 1850
@@ -791,7 +807,7 @@
 Rourea fasciculata Gilg, 1891
 Rourea fluminensis Planch., 1850
 Rourea fluminensis (Gardner) Jongkind, 1989
-Rourea foreroi Aymard &amp; P.E. Berry, 1996 [1997]
+Rourea foreroi Aymard &amp; P.E. Berry, 1996 
 Rourea fraterna Planch., 1850
 Rourea frutescens Aubl., 1775
 Rourea fulgens Planch., 1850
@@ -842,7 +858,7 @@
 Rourea neglecta G. Schellenb., 1938
 Rourea nivea Gilg, 1900
 Rourea obliquifoliolata Gilg, 1891
-Rourea oblongifolia Hook. &amp; Arn., 1841 [1838]
+Rourea oblongifolia Hook. &amp; Arn., 1841 
 Rourea oddonii De Wild., 1909
 Rourea omissa Forero, 1976
 Rourea orientalis Baill., 1867
@@ -899,7 +915,7 @@
 Rourea subtriplinervis Radlk., 1890
 Rourea subvolubilis Elmer, 1915
 Rourea suerrensis Donn. Sm., 1897
-Rourea surinamensis Miq., 1853 [1854]
+Rourea surinamensis Miq., 1853 
 Rourea sympetala Urb., 1908
 Rourea tenuis G. Schellenb., 1938
 Rourea thomsonii (Baker) Jongkind, 1989
